--- a/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EB8252-4444-4484-A4E7-1BEDA9EFBFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9EDDA41-0DCF-4468-918A-AEC54C751650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7608026-F25F-4116-ACD4-B6E6384A7202}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CE5D5D2-D2BA-49A4-B73E-06ECCEF32245}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>45,29%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>Una o dos por semana</t>
@@ -104,28 +104,25 @@
     <t>38,04%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>35,29%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
@@ -134,28 +131,28 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,73 +164,73 @@
     <t>38,78%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>47,43%</t>
   </si>
   <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>10,93%</t>
@@ -242,7 +239,7 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>13,47%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -251,82 +248,82 @@
     <t>31,92%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>44,49%</t>
   </si>
   <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -335,82 +332,82 @@
     <t>35,38%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>47,72%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -419,82 +416,82 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -503,79 +500,79 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>52,55%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>48,53%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -584,82 +581,76 @@
     <t>44,53%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -668,136 +659,136 @@
     <t>17,23%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>66,04%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>63,41%</t>
   </si>
   <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>21,05%</t>
@@ -806,25 +797,25 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0469D1-2CC0-4D61-B3B3-C1F4AAB9E461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB97E08-0F51-4F82-9467-59FBECFF0D44}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>350</v>
@@ -1444,19 +1435,19 @@
         <v>206638</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>56</v>
@@ -1465,13 +1456,13 @@
         <v>43394</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -1480,13 +1471,13 @@
         <v>28578</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>117</v>
@@ -1495,13 +1486,13 @@
         <v>71972</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1507,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -1531,13 +1522,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -1546,18 +1537,18 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1560,13 @@
         <v>201005</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>305</v>
@@ -1584,13 +1575,13 @@
         <v>232893</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
@@ -1599,13 +1590,13 @@
         <v>433899</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1611,13 @@
         <v>258657</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>340</v>
@@ -1635,13 +1626,13 @@
         <v>263042</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>530</v>
@@ -1650,19 +1641,19 @@
         <v>521699</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>39</v>
@@ -1671,13 +1662,13 @@
         <v>58676</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -1686,13 +1677,13 @@
         <v>58631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -1701,13 +1692,13 @@
         <v>117307</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1713,13 @@
         <v>518338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -1737,13 +1728,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -1752,18 +1743,18 @@
         <v>1072905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1766,13 @@
         <v>101719</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>265</v>
@@ -1790,13 +1781,13 @@
         <v>183002</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>385</v>
@@ -1805,13 +1796,13 @@
         <v>284721</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1817,13 @@
         <v>141779</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -1841,13 +1832,13 @@
         <v>120238</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -1856,19 +1847,19 @@
         <v>262016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
@@ -1877,13 +1868,13 @@
         <v>75164</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1892,13 +1883,13 @@
         <v>67039</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -1907,13 +1898,13 @@
         <v>142203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1919,13 @@
         <v>318662</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -1943,13 +1934,13 @@
         <v>370279</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>888</v>
@@ -1958,18 +1949,18 @@
         <v>688941</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1981,13 +1972,13 @@
         <v>114009</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -1996,13 +1987,13 @@
         <v>170897</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -2011,13 +2002,13 @@
         <v>284906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2023,13 @@
         <v>76567</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -2047,13 +2038,13 @@
         <v>91924</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -2062,19 +2053,19 @@
         <v>168491</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
@@ -2083,13 +2074,13 @@
         <v>131664</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -2098,13 +2089,13 @@
         <v>164555</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -2113,13 +2104,13 @@
         <v>296219</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2125,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -2149,13 +2140,13 @@
         <v>427376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>889</v>
@@ -2164,18 +2155,18 @@
         <v>749616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2178,13 @@
         <v>34469</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2202,13 +2193,13 @@
         <v>36301</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
@@ -2217,13 +2208,13 @@
         <v>70770</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2229,13 @@
         <v>148866</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>379</v>
@@ -2253,13 +2244,13 @@
         <v>180014</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>591</v>
@@ -2268,19 +2259,19 @@
         <v>328878</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>17</v>
@@ -2289,13 +2280,13 @@
         <v>11929</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2304,13 +2295,13 @@
         <v>15181</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -2319,13 +2310,13 @@
         <v>27109</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2331,13 @@
         <v>195263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>491</v>
@@ -2355,13 +2346,13 @@
         <v>231496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>768</v>
@@ -2370,18 +2361,18 @@
         <v>426758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2393,13 +2384,13 @@
         <v>84581</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -2408,13 +2399,13 @@
         <v>144833</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>377</v>
@@ -2423,13 +2414,13 @@
         <v>229413</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2435,13 @@
         <v>117963</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -2459,13 +2450,13 @@
         <v>101717</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -2474,19 +2465,19 @@
         <v>219680</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>93</v>
@@ -2495,13 +2486,13 @@
         <v>74680</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -2510,13 +2501,13 @@
         <v>29072</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -2525,13 +2516,13 @@
         <v>103752</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2537,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -2561,13 +2552,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -2576,18 +2567,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2599,13 +2590,13 @@
         <v>279038</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>365</v>
@@ -2614,13 +2605,13 @@
         <v>272305</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>627</v>
@@ -2629,13 +2620,13 @@
         <v>551343</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2641,13 @@
         <v>175728</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>274</v>
@@ -2665,13 +2656,13 @@
         <v>302548</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>448</v>
@@ -2680,19 +2671,19 @@
         <v>478276</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>162</v>
@@ -2701,13 +2692,13 @@
         <v>171911</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>320</v>
@@ -2716,13 +2707,13 @@
         <v>228566</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>482</v>
@@ -2731,13 +2722,13 @@
         <v>400477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2743,13 @@
         <v>626677</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>959</v>
@@ -2767,13 +2758,13 @@
         <v>803419</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1557</v>
@@ -2782,18 +2773,18 @@
         <v>1430096</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2805,13 +2796,13 @@
         <v>148054</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>270</v>
@@ -2820,13 +2811,13 @@
         <v>217581</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>417</v>
@@ -2835,13 +2826,13 @@
         <v>365635</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2847,13 @@
         <v>567532</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>652</v>
@@ -2871,13 +2862,13 @@
         <v>528167</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M33" s="7">
         <v>1141</v>
@@ -2886,19 +2877,19 @@
         <v>1095699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>126</v>
@@ -2907,13 +2898,13 @@
         <v>143842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>140</v>
@@ -2922,13 +2913,13 @@
         <v>122686</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>266</v>
@@ -2937,13 +2928,13 @@
         <v>266528</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2949,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -2973,13 +2964,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -2988,13 +2979,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3002,13 @@
         <v>1080767</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>2060</v>
@@ -3026,13 +3017,13 @@
         <v>1393012</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>3181</v>
@@ -3041,13 +3032,13 @@
         <v>2473778</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3053,13 @@
         <v>1586102</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>2330</v>
@@ -3077,13 +3068,13 @@
         <v>1695276</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>3898</v>
@@ -3092,19 +3083,19 @@
         <v>3281379</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <v>679</v>
@@ -3113,13 +3104,13 @@
         <v>711260</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>966</v>
@@ -3128,13 +3119,13 @@
         <v>714308</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>1645</v>
@@ -3143,13 +3134,13 @@
         <v>1425568</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3155,13 @@
         <v>3378129</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>5356</v>
@@ -3179,13 +3170,13 @@
         <v>3802596</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>8724</v>
@@ -3194,18 +3185,18 @@
         <v>7180725</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9EDDA41-0DCF-4468-918A-AEC54C751650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE6142F-1D25-45A1-AED8-5BE3C30C5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CE5D5D2-D2BA-49A4-B73E-06ECCEF32245}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F230B3FA-1AE3-4E2E-9114-05355949121E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>Población según el número de veces que consumen frutos secos a la semana en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -71,751 +71,754 @@
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>Una o dos por semana</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>Una o dos por semana</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB97E08-0F51-4F82-9467-59FBECFF0D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525706B8-26F9-402B-964F-BAC15D001AA8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,7 +1354,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="7">
-        <v>117892</v>
+        <v>138211</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1369,7 @@
         <v>255</v>
       </c>
       <c r="I4" s="7">
-        <v>135199</v>
+        <v>144560</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1381,7 +1384,7 @@
         <v>402</v>
       </c>
       <c r="N4" s="7">
-        <v>253090</v>
+        <v>282770</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1402,7 +1405,7 @@
         <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>99012</v>
+        <v>119026</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1417,7 +1420,7 @@
         <v>222</v>
       </c>
       <c r="I5" s="7">
-        <v>107626</v>
+        <v>114702</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1426,73 +1429,73 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>350</v>
       </c>
       <c r="N5" s="7">
-        <v>206638</v>
+        <v>233727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>56</v>
       </c>
       <c r="D6" s="7">
-        <v>43394</v>
+        <v>54206</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
       </c>
       <c r="I6" s="7">
-        <v>28578</v>
+        <v>30374</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>117</v>
       </c>
       <c r="N6" s="7">
-        <v>71972</v>
+        <v>84580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,51 +1507,51 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1557,46 +1560,46 @@
         <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>201005</v>
+        <v>199212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>305</v>
       </c>
       <c r="I8" s="7">
-        <v>232893</v>
+        <v>215386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>433899</v>
+        <v>414597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,97 +1611,97 @@
         <v>190</v>
       </c>
       <c r="D9" s="7">
-        <v>258657</v>
+        <v>256265</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>263042</v>
+        <v>245109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>521699</v>
+        <v>501374</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>58676</v>
+        <v>62045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
       </c>
       <c r="I10" s="7">
-        <v>58631</v>
+        <v>54474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>117307</v>
+        <v>116520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,51 +1713,51 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>518338</v>
+        <v>517522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
       </c>
       <c r="N11" s="7">
-        <v>1072905</v>
+        <v>1032491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1763,46 +1766,46 @@
         <v>120</v>
       </c>
       <c r="D12" s="7">
-        <v>101719</v>
+        <v>98918</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>183002</v>
+        <v>171215</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>385</v>
       </c>
       <c r="N12" s="7">
-        <v>284721</v>
+        <v>270132</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,97 +1817,97 @@
         <v>152</v>
       </c>
       <c r="D13" s="7">
-        <v>141779</v>
+        <v>140159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
       </c>
       <c r="I13" s="7">
-        <v>120238</v>
+        <v>112651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
       </c>
       <c r="N13" s="7">
-        <v>262016</v>
+        <v>252810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>75164</v>
+        <v>73464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>67039</v>
+        <v>62498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
       </c>
       <c r="N14" s="7">
-        <v>142203</v>
+        <v>135961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,51 +1919,51 @@
         <v>356</v>
       </c>
       <c r="D15" s="7">
-        <v>318662</v>
+        <v>312540</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
       </c>
       <c r="I15" s="7">
-        <v>370279</v>
+        <v>346363</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>888</v>
       </c>
       <c r="N15" s="7">
-        <v>688941</v>
+        <v>658903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1969,46 +1972,46 @@
         <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>114009</v>
+        <v>110373</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
       </c>
       <c r="I16" s="7">
-        <v>170897</v>
+        <v>158043</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
       </c>
       <c r="N16" s="7">
-        <v>284906</v>
+        <v>268415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,97 +2023,97 @@
         <v>76</v>
       </c>
       <c r="D17" s="7">
-        <v>76567</v>
+        <v>73851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
       </c>
       <c r="I17" s="7">
-        <v>91924</v>
+        <v>84723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
       </c>
       <c r="N17" s="7">
-        <v>168491</v>
+        <v>158574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
       </c>
       <c r="D18" s="7">
-        <v>131664</v>
+        <v>128333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
       </c>
       <c r="I18" s="7">
-        <v>164555</v>
+        <v>231833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>296219</v>
+        <v>360165</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,51 +2125,51 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427376</v>
+        <v>474599</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>889</v>
       </c>
       <c r="N19" s="7">
-        <v>749616</v>
+        <v>787155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2175,46 +2178,46 @@
         <v>48</v>
       </c>
       <c r="D20" s="7">
-        <v>34469</v>
+        <v>31140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
       </c>
       <c r="I20" s="7">
-        <v>36301</v>
+        <v>32426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
       </c>
       <c r="N20" s="7">
-        <v>70770</v>
+        <v>63566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,97 +2229,97 @@
         <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>148866</v>
+        <v>135438</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>379</v>
       </c>
       <c r="I21" s="7">
-        <v>180014</v>
+        <v>161888</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>591</v>
       </c>
       <c r="N21" s="7">
-        <v>328878</v>
+        <v>297326</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>11929</v>
+        <v>10815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>15181</v>
+        <v>13961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>27109</v>
+        <v>24776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,51 +2331,51 @@
         <v>277</v>
       </c>
       <c r="D23" s="7">
-        <v>195263</v>
+        <v>177394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>768</v>
       </c>
       <c r="N23" s="7">
-        <v>426758</v>
+        <v>385668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,46 +2384,46 @@
         <v>131</v>
       </c>
       <c r="D24" s="7">
-        <v>84581</v>
+        <v>81842</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
       </c>
       <c r="I24" s="7">
-        <v>144833</v>
+        <v>135154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>377</v>
       </c>
       <c r="N24" s="7">
-        <v>229413</v>
+        <v>216996</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,97 +2435,97 @@
         <v>147</v>
       </c>
       <c r="D25" s="7">
-        <v>117963</v>
+        <v>115550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
       </c>
       <c r="I25" s="7">
-        <v>101717</v>
+        <v>94839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
       </c>
       <c r="N25" s="7">
-        <v>219680</v>
+        <v>210389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>93</v>
       </c>
       <c r="D26" s="7">
-        <v>74680</v>
+        <v>72244</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
       </c>
       <c r="I26" s="7">
-        <v>29072</v>
+        <v>27063</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
       </c>
       <c r="N26" s="7">
-        <v>103752</v>
+        <v>99307</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,51 +2537,51 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,46 +2590,46 @@
         <v>262</v>
       </c>
       <c r="D28" s="7">
-        <v>279038</v>
+        <v>280862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>365</v>
       </c>
       <c r="I28" s="7">
-        <v>272305</v>
+        <v>252983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>627</v>
       </c>
       <c r="N28" s="7">
-        <v>551343</v>
+        <v>533845</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,97 +2641,97 @@
         <v>174</v>
       </c>
       <c r="D29" s="7">
-        <v>175728</v>
+        <v>173045</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>274</v>
       </c>
       <c r="I29" s="7">
-        <v>302548</v>
+        <v>383274</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>448</v>
       </c>
       <c r="N29" s="7">
-        <v>478276</v>
+        <v>556319</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>162</v>
       </c>
       <c r="D30" s="7">
-        <v>171911</v>
+        <v>169343</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>320</v>
       </c>
       <c r="I30" s="7">
-        <v>228566</v>
+        <v>212289</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>482</v>
       </c>
       <c r="N30" s="7">
-        <v>400477</v>
+        <v>381632</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,51 +2743,51 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>959</v>
       </c>
       <c r="I31" s="7">
-        <v>803419</v>
+        <v>848545</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1557</v>
       </c>
       <c r="N31" s="7">
-        <v>1430096</v>
+        <v>1471795</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,46 +2796,46 @@
         <v>147</v>
       </c>
       <c r="D32" s="7">
-        <v>148054</v>
+        <v>125831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>270</v>
       </c>
       <c r="I32" s="7">
-        <v>217581</v>
+        <v>179665</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>417</v>
       </c>
       <c r="N32" s="7">
-        <v>365635</v>
+        <v>305497</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,97 +2847,97 @@
         <v>489</v>
       </c>
       <c r="D33" s="7">
-        <v>567532</v>
+        <v>681559</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H33" s="7">
         <v>652</v>
       </c>
       <c r="I33" s="7">
-        <v>528167</v>
+        <v>437454</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M33" s="7">
         <v>1141</v>
       </c>
       <c r="N33" s="7">
-        <v>1095699</v>
+        <v>1119014</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>126</v>
       </c>
       <c r="D34" s="7">
-        <v>143842</v>
+        <v>121330</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>140</v>
       </c>
       <c r="I34" s="7">
-        <v>122686</v>
+        <v>100611</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>266</v>
       </c>
       <c r="N34" s="7">
-        <v>266528</v>
+        <v>221941</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,46 +2949,46 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,46 +3002,46 @@
         <v>1121</v>
       </c>
       <c r="D36" s="7">
-        <v>1080767</v>
+        <v>1066388</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>2060</v>
       </c>
       <c r="I36" s="7">
-        <v>1393012</v>
+        <v>1289430</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>3181</v>
       </c>
       <c r="N36" s="7">
-        <v>2473778</v>
+        <v>2355818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,97 +3053,97 @@
         <v>1568</v>
       </c>
       <c r="D37" s="7">
-        <v>1586102</v>
+        <v>1694895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>2330</v>
       </c>
       <c r="I37" s="7">
-        <v>1695276</v>
+        <v>1634639</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>3898</v>
       </c>
       <c r="N37" s="7">
-        <v>3281379</v>
+        <v>3329534</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>679</v>
       </c>
       <c r="D38" s="7">
-        <v>711260</v>
+        <v>691780</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>966</v>
       </c>
       <c r="I38" s="7">
-        <v>714308</v>
+        <v>733102</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>1645</v>
       </c>
       <c r="N38" s="7">
-        <v>1425568</v>
+        <v>1424881</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,51 +3155,51 @@
         <v>3368</v>
       </c>
       <c r="D39" s="7">
-        <v>3378129</v>
+        <v>3453062</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39" s="7">
         <v>5356</v>
       </c>
       <c r="I39" s="7">
-        <v>3802596</v>
+        <v>3657172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M39" s="7">
         <v>8724</v>
       </c>
       <c r="N39" s="7">
-        <v>7180725</v>
+        <v>7110233</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
